--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S11/S11_lossmod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S11/S11_lossmod.xlsx
@@ -14,180 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.015768012996734325</t>
-  </si>
-  <si>
-    <t>0.02484582990799097</t>
-  </si>
-  <si>
-    <t>0.03790032730541702</t>
-  </si>
-  <si>
-    <t>0.06074593807461669</t>
-  </si>
-  <si>
-    <t>0.09416481361035058</t>
-  </si>
-  <si>
-    <t>0.14844087471573206</t>
-  </si>
-  <si>
-    <t>0.22648847070242736</t>
-  </si>
-  <si>
-    <t>0.3512623628096</t>
-  </si>
-  <si>
-    <t>0.6133110046941798</t>
-  </si>
-  <si>
-    <t>0.8880313794946204</t>
-  </si>
-  <si>
-    <t>1.2701766695581793</t>
-  </si>
-  <si>
-    <t>1.8170834174362176</t>
-  </si>
-  <si>
-    <t>2.5995927258832685</t>
-  </si>
-  <si>
-    <t>3.719217122200982</t>
-  </si>
-  <si>
-    <t>5.321151668424275</t>
-  </si>
-  <si>
-    <t>7.615280677594388</t>
-  </si>
-  <si>
-    <t>10.89927812265378</t>
-  </si>
-  <si>
-    <t>15.599884520912703</t>
-  </si>
-  <si>
-    <t>22.3267401442205</t>
-  </si>
-  <si>
-    <t>32.273312284195974</t>
-  </si>
-  <si>
-    <t>47.26481022599725</t>
-  </si>
-  <si>
-    <t>67.66929966422651</t>
-  </si>
-  <si>
-    <t>96.88047180305558</t>
-  </si>
-  <si>
-    <t>138.6959318143453</t>
-  </si>
-  <si>
-    <t>196.63693706701645</t>
-  </si>
-  <si>
-    <t>284.30407066019575</t>
-  </si>
-  <si>
-    <t>408.60033387442934</t>
-  </si>
-  <si>
-    <t>495.0589837645989</t>
-  </si>
-  <si>
-    <t>102.44734587646055</t>
-  </si>
-  <si>
-    <t>165.0083736585754</t>
-  </si>
-  <si>
-    <t>254.7925751060892</t>
-  </si>
-  <si>
-    <t>358.23710203762624</t>
-  </si>
-  <si>
-    <t>580.5895434326868</t>
-  </si>
-  <si>
-    <t>860.2482573961793</t>
-  </si>
-  <si>
-    <t>1268.9654686854165</t>
-  </si>
-  <si>
-    <t>1870.3896348044402</t>
-  </si>
-  <si>
-    <t>2693.0121668340125</t>
-  </si>
-  <si>
-    <t>3476.086904475602</t>
-  </si>
-  <si>
-    <t>4473.720995517519</t>
-  </si>
-  <si>
-    <t>5569.627100110978</t>
-  </si>
-  <si>
-    <t>6873.664491761462</t>
-  </si>
-  <si>
-    <t>8423.925769858663</t>
-  </si>
-  <si>
-    <t>10287.805086815399</t>
-  </si>
-  <si>
-    <t>11880.722301082762</t>
-  </si>
-  <si>
-    <t>13529.786468131042</t>
-  </si>
-  <si>
-    <t>15327.17205826837</t>
-  </si>
-  <si>
-    <t>17515.725692474185</t>
-  </si>
-  <si>
-    <t>19494.86755920303</t>
-  </si>
-  <si>
-    <t>21666.456655286365</t>
-  </si>
-  <si>
-    <t>23169.246027840527</t>
-  </si>
-  <si>
-    <t>24877.51036550224</t>
-  </si>
-  <si>
-    <t>26914.786625627064</t>
-  </si>
-  <si>
-    <t>28752.297937770054</t>
-  </si>
-  <si>
-    <t>30616.951873509384</t>
-  </si>
-  <si>
-    <t>31515.05148018857</t>
-  </si>
-  <si>
-    <t>33825.698834807874</t>
+    <t>Loss modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -560,227 +392,227 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
+      <c r="A2">
+        <v>0.01576801299673432</v>
+      </c>
+      <c r="B2">
+        <v>102.4473458764605</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
+      <c r="A3">
+        <v>0.02484582990799097</v>
+      </c>
+      <c r="B3">
+        <v>165.0083736585754</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
+      <c r="A4">
+        <v>0.03790032730541702</v>
+      </c>
+      <c r="B4">
+        <v>254.7925751060892</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
+      <c r="A5">
+        <v>0.06074593807461669</v>
+      </c>
+      <c r="B5">
+        <v>358.2371020376262</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
+      <c r="A6">
+        <v>0.09416481361035058</v>
+      </c>
+      <c r="B6">
+        <v>580.5895434326868</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
+      <c r="A7">
+        <v>0.1484408747157321</v>
+      </c>
+      <c r="B7">
+        <v>860.2482573961793</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
+      <c r="A8">
+        <v>0.2264884707024274</v>
+      </c>
+      <c r="B8">
+        <v>1268.965468685416</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
+      <c r="A9">
+        <v>0.3512623628096</v>
+      </c>
+      <c r="B9">
+        <v>1870.38963480444</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
+      <c r="A10">
+        <v>0.6133110046941798</v>
+      </c>
+      <c r="B10">
+        <v>2693.012166834013</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
+      <c r="A11">
+        <v>0.8880313794946204</v>
+      </c>
+      <c r="B11">
+        <v>3476.086904475602</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
+      <c r="A12">
+        <v>1.270176669558179</v>
+      </c>
+      <c r="B12">
+        <v>4473.720995517519</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
+      <c r="A13">
+        <v>1.817083417436218</v>
+      </c>
+      <c r="B13">
+        <v>5569.627100110978</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
+      <c r="A14">
+        <v>2.599592725883269</v>
+      </c>
+      <c r="B14">
+        <v>6873.664491761462</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
+      <c r="A15">
+        <v>3.719217122200982</v>
+      </c>
+      <c r="B15">
+        <v>8423.925769858663</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
+      <c r="A16">
+        <v>5.321151668424275</v>
+      </c>
+      <c r="B16">
+        <v>10287.8050868154</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
+      <c r="A17">
+        <v>7.615280677594388</v>
+      </c>
+      <c r="B17">
+        <v>11880.72230108276</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
+      <c r="A18">
+        <v>10.89927812265378</v>
+      </c>
+      <c r="B18">
+        <v>13529.78646813104</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
+      <c r="A19">
+        <v>15.5998845209127</v>
+      </c>
+      <c r="B19">
+        <v>15327.17205826837</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
+      <c r="A20">
+        <v>22.3267401442205</v>
+      </c>
+      <c r="B20">
+        <v>17515.72569247419</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
+      <c r="A21">
+        <v>32.27331228419597</v>
+      </c>
+      <c r="B21">
+        <v>19494.86755920303</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
+      <c r="A22">
+        <v>47.26481022599725</v>
+      </c>
+      <c r="B22">
+        <v>21666.45665528637</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
+      <c r="A23">
+        <v>67.66929966422651</v>
+      </c>
+      <c r="B23">
+        <v>23169.24602784053</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
+      <c r="A24">
+        <v>96.88047180305558</v>
+      </c>
+      <c r="B24">
+        <v>24877.51036550224</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
+      <c r="A25">
+        <v>138.6959318143453</v>
+      </c>
+      <c r="B25">
+        <v>26914.78662562706</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
+      <c r="A26">
+        <v>196.6369370670164</v>
+      </c>
+      <c r="B26">
+        <v>28752.29793777005</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
+      <c r="A27">
+        <v>284.3040706601957</v>
+      </c>
+      <c r="B27">
+        <v>30616.95187350938</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
+      <c r="A28">
+        <v>408.6003338744293</v>
+      </c>
+      <c r="B28">
+        <v>31515.05148018857</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
+      <c r="A29">
+        <v>495.0589837645989</v>
+      </c>
+      <c r="B29">
+        <v>33825.69883480787</v>
       </c>
     </row>
   </sheetData>
